--- a/Data/ROY Data/rookies_01_02.xlsx
+++ b/Data/ROY Data/rookies_01_02.xlsx
@@ -936,76 +936,76 @@
         <v>23</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>161</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>478</v>
-      </c>
-      <c r="H2">
-        <v>7262</v>
-      </c>
-      <c r="I2">
-        <v>1039</v>
-      </c>
-      <c r="J2">
-        <v>2365</v>
-      </c>
-      <c r="K2">
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>38</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
         <v>16</v>
       </c>
-      <c r="M2">
-        <v>253</v>
-      </c>
-      <c r="N2">
-        <v>325</v>
-      </c>
-      <c r="O2">
-        <v>466</v>
-      </c>
-      <c r="P2">
-        <v>1353</v>
-      </c>
-      <c r="Q2">
-        <v>228</v>
-      </c>
-      <c r="R2">
-        <v>130</v>
-      </c>
-      <c r="S2">
-        <v>220</v>
-      </c>
-      <c r="T2">
-        <v>320</v>
-      </c>
-      <c r="U2">
-        <v>897</v>
-      </c>
       <c r="V2">
-        <v>2334</v>
+        <v>52</v>
       </c>
       <c r="W2">
-        <v>0.439</v>
+        <v>0.431</v>
       </c>
       <c r="X2">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.778</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
-        <v>15.2</v>
+        <v>13.4</v>
       </c>
       <c r="AA2">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="AB2">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="s">
         <v>150</v>
@@ -1028,76 +1028,76 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>695</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>12273</v>
+        <v>262</v>
       </c>
       <c r="I3">
-        <v>1336</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>2512</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>1068</v>
+        <v>22</v>
       </c>
       <c r="N3">
-        <v>1632</v>
+        <v>28</v>
       </c>
       <c r="O3">
-        <v>1176</v>
+        <v>38</v>
       </c>
       <c r="P3">
-        <v>3493</v>
+        <v>76</v>
       </c>
       <c r="Q3">
-        <v>337</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>312</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>991</v>
+        <v>28</v>
       </c>
       <c r="T3">
-        <v>513</v>
+        <v>13</v>
       </c>
       <c r="U3">
-        <v>1342</v>
+        <v>35</v>
       </c>
       <c r="V3">
-        <v>3755</v>
+        <v>72</v>
       </c>
       <c r="W3">
-        <v>0.532</v>
+        <v>0.338</v>
       </c>
       <c r="X3">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.654</v>
+        <v>0.786</v>
       </c>
       <c r="Z3">
-        <v>17.7</v>
+        <v>10.9</v>
       </c>
       <c r="AA3">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="AB3">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="AC3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD3" t="s">
         <v>150</v>
@@ -1120,76 +1120,76 @@
         <v>20</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>1155</v>
+      </c>
+      <c r="I4">
+        <v>174</v>
+      </c>
+      <c r="J4">
+        <v>384</v>
+      </c>
+      <c r="K4">
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <v>113</v>
+      </c>
+      <c r="M4">
+        <v>124</v>
+      </c>
+      <c r="N4">
+        <v>160</v>
+      </c>
+      <c r="O4">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>132</v>
+      </c>
+      <c r="Q4">
+        <v>174</v>
+      </c>
+      <c r="R4">
+        <v>69</v>
+      </c>
+      <c r="S4">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>552</v>
-      </c>
-      <c r="H4">
-        <v>19351</v>
-      </c>
-      <c r="I4">
-        <v>3722</v>
-      </c>
-      <c r="J4">
-        <v>8850</v>
-      </c>
-      <c r="K4">
-        <v>1079</v>
-      </c>
-      <c r="L4">
-        <v>3077</v>
-      </c>
-      <c r="M4">
-        <v>2879</v>
-      </c>
-      <c r="N4">
-        <v>3584</v>
-      </c>
-      <c r="O4">
-        <v>444</v>
-      </c>
-      <c r="P4">
-        <v>2168</v>
-      </c>
-      <c r="Q4">
-        <v>2909</v>
-      </c>
-      <c r="R4">
-        <v>884</v>
-      </c>
-      <c r="S4">
-        <v>134</v>
-      </c>
       <c r="T4">
-        <v>1744</v>
+        <v>97</v>
       </c>
       <c r="U4">
-        <v>1683</v>
+        <v>115</v>
       </c>
       <c r="V4">
-        <v>11402</v>
+        <v>511</v>
       </c>
       <c r="W4">
-        <v>0.421</v>
+        <v>0.453</v>
       </c>
       <c r="X4">
-        <v>0.351</v>
+        <v>0.345</v>
       </c>
       <c r="Y4">
-        <v>0.803</v>
+        <v>0.775</v>
       </c>
       <c r="Z4">
-        <v>35.1</v>
+        <v>24.6</v>
       </c>
       <c r="AA4">
-        <v>20.7</v>
+        <v>10.9</v>
       </c>
       <c r="AB4">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="AC4">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD4" t="s">
         <v>150</v>
@@ -1212,73 +1212,73 @@
         <v>21</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>699</v>
+        <v>196</v>
       </c>
       <c r="I5">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="J5">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P5">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="V5">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="W5">
-        <v>0.352</v>
+        <v>0.318</v>
       </c>
       <c r="X5">
-        <v>0.333</v>
+        <v>0.294</v>
       </c>
       <c r="Y5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z5">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA5">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AB5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AC5">
         <v>0.2</v>
@@ -1304,76 +1304,76 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>569</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>10651</v>
+        <v>371</v>
       </c>
       <c r="I6">
-        <v>1431</v>
+        <v>49</v>
       </c>
       <c r="J6">
-        <v>3269</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>405</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>771</v>
+        <v>13</v>
       </c>
       <c r="N6">
-        <v>956</v>
+        <v>18</v>
       </c>
       <c r="O6">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="P6">
-        <v>965</v>
+        <v>40</v>
       </c>
       <c r="Q6">
-        <v>1761</v>
+        <v>70</v>
       </c>
       <c r="R6">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="S6">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>680</v>
+        <v>23</v>
       </c>
       <c r="U6">
-        <v>874</v>
+        <v>30</v>
       </c>
       <c r="V6">
-        <v>3770</v>
+        <v>111</v>
       </c>
       <c r="W6">
-        <v>0.438</v>
+        <v>0.441</v>
       </c>
       <c r="X6">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.806</v>
+        <v>0.722</v>
       </c>
       <c r="Z6">
-        <v>18.7</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD6" t="s">
         <v>150</v>
@@ -1396,76 +1396,76 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="I7">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J7">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P7">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="U7">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="V7">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="W7">
-        <v>0.391</v>
+        <v>0.402</v>
       </c>
       <c r="X7">
         <v>0.333</v>
       </c>
       <c r="Y7">
-        <v>0.744</v>
+        <v>0.784</v>
       </c>
       <c r="Z7">
-        <v>10.7</v>
+        <v>15.1</v>
       </c>
       <c r="AA7">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB7">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="AC7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD7" t="s">
         <v>150</v>
@@ -1488,76 +1488,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>977</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>30004</v>
+        <v>3097</v>
       </c>
       <c r="I8">
-        <v>2982</v>
+        <v>412</v>
       </c>
       <c r="J8">
-        <v>6819</v>
+        <v>961</v>
       </c>
       <c r="K8">
-        <v>1250</v>
+        <v>103</v>
       </c>
       <c r="L8">
-        <v>3254</v>
+        <v>276</v>
       </c>
       <c r="M8">
-        <v>1194</v>
+        <v>198</v>
       </c>
       <c r="N8">
-        <v>1606</v>
+        <v>283</v>
       </c>
       <c r="O8">
-        <v>1273</v>
+        <v>180</v>
       </c>
       <c r="P8">
-        <v>4082</v>
+        <v>418</v>
       </c>
       <c r="Q8">
-        <v>1717</v>
+        <v>216</v>
       </c>
       <c r="R8">
-        <v>988</v>
+        <v>121</v>
       </c>
       <c r="S8">
-        <v>906</v>
+        <v>81</v>
       </c>
       <c r="T8">
-        <v>878</v>
+        <v>155</v>
       </c>
       <c r="U8">
-        <v>2208</v>
+        <v>215</v>
       </c>
       <c r="V8">
-        <v>8408</v>
+        <v>1125</v>
       </c>
       <c r="W8">
-        <v>0.437</v>
+        <v>0.429</v>
       </c>
       <c r="X8">
-        <v>0.384</v>
+        <v>0.373</v>
       </c>
       <c r="Y8">
-        <v>0.743</v>
+        <v>0.7</v>
       </c>
       <c r="Z8">
-        <v>30.7</v>
+        <v>39.7</v>
       </c>
       <c r="AA8">
-        <v>8.6</v>
+        <v>14.4</v>
       </c>
       <c r="AB8">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AC8">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="s">
         <v>150</v>
@@ -1580,76 +1580,76 @@
         <v>22</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>376</v>
-      </c>
       <c r="H9">
-        <v>9368</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1192</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>2891</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1213</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>814</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>857</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>3204</v>
+        <v>8</v>
       </c>
       <c r="W9">
-        <v>0.412</v>
+        <v>0.273</v>
       </c>
       <c r="X9">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.769</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>24.9</v>
+        <v>6.3</v>
       </c>
       <c r="AA9">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB9">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC9">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="AD9" t="s">
         <v>150</v>
@@ -1672,70 +1672,70 @@
         <v>23</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>245</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>21</v>
+      </c>
+      <c r="P10">
+        <v>55</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>44</v>
-      </c>
-      <c r="H10">
-        <v>276</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>27</v>
-      </c>
-      <c r="O10">
-        <v>22</v>
-      </c>
-      <c r="P10">
-        <v>57</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>4</v>
-      </c>
       <c r="S10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T10">
         <v>14</v>
       </c>
       <c r="U10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V10">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W10">
-        <v>0.368</v>
+        <v>0.406</v>
       </c>
       <c r="Y10">
-        <v>0.556</v>
+        <v>0.52</v>
       </c>
       <c r="Z10">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AB10">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AC10">
         <v>0.1</v>
@@ -1761,76 +1761,76 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>2016</v>
+        <v>118</v>
       </c>
       <c r="I11">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
       <c r="M11">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="P11">
-        <v>591</v>
+        <v>24</v>
       </c>
       <c r="Q11">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="U11">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>483</v>
+        <v>30</v>
       </c>
       <c r="W11">
-        <v>0.477</v>
+        <v>0.52</v>
       </c>
       <c r="X11">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="Z11">
-        <v>11.7</v>
+        <v>4.5</v>
       </c>
       <c r="AA11">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AB11">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" t="s">
         <v>150</v>
@@ -1853,76 +1853,73 @@
         <v>21</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>54</v>
-      </c>
-      <c r="H12">
-        <v>468</v>
-      </c>
-      <c r="I12">
-        <v>35</v>
-      </c>
-      <c r="J12">
-        <v>94</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <v>32</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>28</v>
-      </c>
-      <c r="O12">
-        <v>15</v>
-      </c>
-      <c r="P12">
-        <v>50</v>
-      </c>
-      <c r="Q12">
-        <v>56</v>
-      </c>
-      <c r="R12">
-        <v>19</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>32</v>
-      </c>
-      <c r="U12">
-        <v>34</v>
-      </c>
-      <c r="V12">
-        <v>89</v>
-      </c>
       <c r="W12">
-        <v>0.372</v>
+        <v>0.4</v>
       </c>
       <c r="X12">
-        <v>0.25</v>
-      </c>
-      <c r="Y12">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>8.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="AA12">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="AB12">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD12" t="s">
         <v>150</v>
@@ -1945,76 +1942,73 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>6192</v>
+        <v>160</v>
       </c>
       <c r="I13">
-        <v>1012</v>
+        <v>14</v>
       </c>
       <c r="J13">
-        <v>2034</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <v>28</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="M13">
-        <v>427</v>
-      </c>
-      <c r="N13">
-        <v>609</v>
-      </c>
-      <c r="O13">
-        <v>563</v>
-      </c>
-      <c r="P13">
-        <v>1327</v>
-      </c>
-      <c r="Q13">
-        <v>179</v>
-      </c>
       <c r="R13">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="T13">
-        <v>274</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>730</v>
+        <v>28</v>
       </c>
       <c r="V13">
-        <v>2452</v>
+        <v>43</v>
       </c>
       <c r="W13">
-        <v>0.498</v>
-      </c>
-      <c r="X13">
-        <v>0.167</v>
+        <v>0.483</v>
       </c>
       <c r="Y13">
-        <v>0.701</v>
+        <v>0.6</v>
       </c>
       <c r="Z13">
-        <v>18.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA13">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD13" t="s">
         <v>150</v>
@@ -2037,76 +2031,76 @@
         <v>22</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>39</v>
-      </c>
-      <c r="H14">
-        <v>351</v>
-      </c>
-      <c r="I14">
-        <v>43</v>
-      </c>
-      <c r="J14">
-        <v>128</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
-      <c r="M14">
-        <v>18</v>
-      </c>
-      <c r="N14">
-        <v>27</v>
-      </c>
-      <c r="O14">
-        <v>18</v>
-      </c>
-      <c r="P14">
-        <v>52</v>
-      </c>
       <c r="Q14">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="U14">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="V14">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="W14">
-        <v>0.336</v>
+        <v>0.381</v>
       </c>
       <c r="X14">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.667</v>
+        <v>0.875</v>
       </c>
       <c r="Z14">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="AA14">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AB14">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC14">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD14" t="s">
         <v>150</v>
@@ -2218,76 +2212,76 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1935</v>
+        <v>245</v>
       </c>
       <c r="I16">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="J16">
-        <v>501</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="O16">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="P16">
-        <v>347</v>
+        <v>50</v>
       </c>
       <c r="Q16">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="R16">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="S16">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="V16">
-        <v>509</v>
+        <v>63</v>
       </c>
       <c r="W16">
-        <v>0.405</v>
+        <v>0.329</v>
       </c>
       <c r="X16">
-        <v>0.274</v>
+        <v>0.185</v>
       </c>
       <c r="Y16">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="Z16">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AA16">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="AB16">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC16">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="s">
         <v>150</v>
@@ -2310,76 +2304,76 @@
         <v>19</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>607</v>
+        <v>57</v>
       </c>
       <c r="H17">
-        <v>13389</v>
+        <v>817</v>
       </c>
       <c r="I17">
-        <v>1518</v>
+        <v>94</v>
       </c>
       <c r="J17">
-        <v>3088</v>
+        <v>243</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>998</v>
+        <v>70</v>
       </c>
       <c r="N17">
-        <v>1750</v>
+        <v>99</v>
       </c>
       <c r="O17">
-        <v>1085</v>
+        <v>63</v>
       </c>
       <c r="P17">
-        <v>3333</v>
+        <v>198</v>
       </c>
       <c r="Q17">
-        <v>554</v>
+        <v>43</v>
       </c>
       <c r="R17">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="S17">
-        <v>376</v>
+        <v>26</v>
       </c>
       <c r="T17">
-        <v>771</v>
+        <v>43</v>
       </c>
       <c r="U17">
-        <v>1385</v>
+        <v>105</v>
       </c>
       <c r="V17">
-        <v>4035</v>
+        <v>258</v>
       </c>
       <c r="W17">
-        <v>0.492</v>
+        <v>0.387</v>
       </c>
       <c r="X17">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.57</v>
+        <v>0.707</v>
       </c>
       <c r="Z17">
-        <v>22.1</v>
+        <v>14.3</v>
       </c>
       <c r="AA17">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="AB17">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AC17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD17" t="s">
         <v>150</v>
@@ -2402,76 +2396,76 @@
         <v>22</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>403</v>
+      </c>
+      <c r="I18">
+        <v>49</v>
+      </c>
+      <c r="J18">
+        <v>115</v>
+      </c>
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>134</v>
-      </c>
-      <c r="H18">
-        <v>1654</v>
-      </c>
-      <c r="I18">
-        <v>202</v>
-      </c>
-      <c r="J18">
-        <v>526</v>
-      </c>
-      <c r="K18">
-        <v>30</v>
-      </c>
       <c r="L18">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="O18">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P18">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Q18">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="R18">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="U18">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="V18">
-        <v>527</v>
+        <v>123</v>
       </c>
       <c r="W18">
-        <v>0.384</v>
+        <v>0.426</v>
       </c>
       <c r="X18">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="Y18">
-        <v>0.769</v>
+        <v>0.75</v>
       </c>
       <c r="Z18">
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
       <c r="AA18">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB18">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD18" t="s">
         <v>150</v>
@@ -2494,73 +2488,70 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1160</v>
+        <v>71</v>
       </c>
       <c r="H19">
-        <v>31617</v>
+        <v>1389</v>
       </c>
       <c r="I19">
-        <v>3558</v>
+        <v>151</v>
       </c>
       <c r="J19">
-        <v>5964</v>
+        <v>304</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2393</v>
+        <v>134</v>
       </c>
       <c r="N19">
-        <v>3714</v>
+        <v>222</v>
       </c>
       <c r="O19">
-        <v>3529</v>
+        <v>114</v>
       </c>
       <c r="P19">
-        <v>10467</v>
+        <v>343</v>
       </c>
       <c r="Q19">
-        <v>967</v>
+        <v>54</v>
       </c>
       <c r="R19">
-        <v>630</v>
+        <v>28</v>
       </c>
       <c r="S19">
-        <v>1335</v>
+        <v>93</v>
       </c>
       <c r="T19">
-        <v>1656</v>
+        <v>99</v>
       </c>
       <c r="U19">
-        <v>3268</v>
+        <v>179</v>
       </c>
       <c r="V19">
-        <v>9509</v>
+        <v>436</v>
       </c>
       <c r="W19">
-        <v>0.597</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
+        <v>0.497</v>
       </c>
       <c r="Y19">
-        <v>0.644</v>
+        <v>0.604</v>
       </c>
       <c r="Z19">
-        <v>27.3</v>
+        <v>19.6</v>
       </c>
       <c r="AA19">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="AB19">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="AC19">
         <v>0.8</v>
@@ -2586,76 +2577,76 @@
         <v>23</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>334</v>
+        <v>67</v>
       </c>
       <c r="H20">
-        <v>8548</v>
+        <v>1528</v>
       </c>
       <c r="I20">
-        <v>1126</v>
+        <v>181</v>
       </c>
       <c r="J20">
-        <v>2753</v>
+        <v>452</v>
       </c>
       <c r="K20">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>802</v>
+        <v>114</v>
       </c>
       <c r="N20">
-        <v>1053</v>
+        <v>136</v>
       </c>
       <c r="O20">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="P20">
-        <v>830</v>
+        <v>160</v>
       </c>
       <c r="Q20">
-        <v>1441</v>
+        <v>198</v>
       </c>
       <c r="R20">
-        <v>503</v>
+        <v>95</v>
       </c>
       <c r="S20">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="U20">
-        <v>827</v>
+        <v>145</v>
       </c>
       <c r="V20">
-        <v>3096</v>
+        <v>480</v>
       </c>
       <c r="W20">
-        <v>0.409</v>
+        <v>0.4</v>
       </c>
       <c r="X20">
-        <v>0.193</v>
+        <v>0.121</v>
       </c>
       <c r="Y20">
-        <v>0.762</v>
+        <v>0.838</v>
       </c>
       <c r="Z20">
-        <v>25.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA20">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AB20">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC20">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="s">
         <v>150</v>
@@ -2678,73 +2669,73 @@
         <v>23</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>542</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>8542</v>
+        <v>1440</v>
       </c>
       <c r="I21">
-        <v>682</v>
+        <v>158</v>
       </c>
       <c r="J21">
-        <v>1500</v>
+        <v>343</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>731</v>
+        <v>134</v>
       </c>
       <c r="N21">
-        <v>1046</v>
+        <v>181</v>
       </c>
       <c r="O21">
-        <v>645</v>
+        <v>138</v>
       </c>
       <c r="P21">
-        <v>1579</v>
+        <v>296</v>
       </c>
       <c r="Q21">
-        <v>419</v>
+        <v>58</v>
       </c>
       <c r="R21">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="S21">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="T21">
-        <v>334</v>
+        <v>56</v>
       </c>
       <c r="U21">
-        <v>1316</v>
+        <v>234</v>
       </c>
       <c r="V21">
-        <v>2095</v>
+        <v>450</v>
       </c>
       <c r="W21">
-        <v>0.455</v>
+        <v>0.461</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.699</v>
+        <v>0.74</v>
       </c>
       <c r="Z21">
-        <v>15.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA21">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB21">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="AC21">
         <v>0.8</v>
@@ -2770,76 +2761,76 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>735</v>
+        <v>77</v>
       </c>
       <c r="H22">
-        <v>14974</v>
+        <v>1407</v>
       </c>
       <c r="I22">
-        <v>918</v>
+        <v>117</v>
       </c>
       <c r="J22">
-        <v>2234</v>
+        <v>278</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>778</v>
+        <v>115</v>
       </c>
       <c r="N22">
-        <v>1202</v>
+        <v>164</v>
       </c>
       <c r="O22">
-        <v>915</v>
+        <v>132</v>
       </c>
       <c r="P22">
-        <v>2706</v>
+        <v>301</v>
       </c>
       <c r="Q22">
-        <v>626</v>
+        <v>81</v>
       </c>
       <c r="R22">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="S22">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="T22">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="U22">
-        <v>2056</v>
+        <v>173</v>
       </c>
       <c r="V22">
-        <v>2621</v>
+        <v>350</v>
       </c>
       <c r="W22">
-        <v>0.411</v>
+        <v>0.421</v>
       </c>
       <c r="X22">
-        <v>0.206</v>
+        <v>0.5</v>
       </c>
       <c r="Y22">
-        <v>0.647</v>
+        <v>0.701</v>
       </c>
       <c r="Z22">
-        <v>20.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA22">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AB22">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AC22">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD22" t="s">
         <v>150</v>
@@ -2954,76 +2945,73 @@
         <v>19</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>527</v>
+        <v>72</v>
       </c>
       <c r="H24">
-        <v>13109</v>
+        <v>1150</v>
       </c>
       <c r="I24">
-        <v>2578</v>
+        <v>189</v>
       </c>
       <c r="J24">
-        <v>4734</v>
+        <v>377</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1662</v>
+        <v>105</v>
       </c>
       <c r="N24">
-        <v>2588</v>
+        <v>160</v>
       </c>
       <c r="O24">
-        <v>947</v>
+        <v>111</v>
       </c>
       <c r="P24">
-        <v>2725</v>
+        <v>272</v>
       </c>
       <c r="Q24">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="R24">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="S24">
-        <v>384</v>
+        <v>53</v>
       </c>
       <c r="T24">
-        <v>1174</v>
+        <v>69</v>
       </c>
       <c r="U24">
-        <v>1562</v>
+        <v>173</v>
       </c>
       <c r="V24">
-        <v>6820</v>
+        <v>483</v>
       </c>
       <c r="W24">
-        <v>0.545</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
+        <v>0.501</v>
       </c>
       <c r="Y24">
-        <v>0.642</v>
+        <v>0.656</v>
       </c>
       <c r="Z24">
-        <v>24.9</v>
+        <v>16</v>
       </c>
       <c r="AA24">
-        <v>12.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB24">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="AC24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD24" t="s">
         <v>150</v>
@@ -3046,76 +3034,73 @@
         <v>20</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>177</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>18</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>68</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
         <v>13</v>
       </c>
-      <c r="G25">
-        <v>886</v>
-      </c>
-      <c r="H25">
-        <v>21646</v>
-      </c>
-      <c r="I25">
-        <v>2810</v>
-      </c>
-      <c r="J25">
-        <v>5393</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="M25">
-        <v>1193</v>
-      </c>
-      <c r="N25">
-        <v>1689</v>
-      </c>
-      <c r="O25">
-        <v>2289</v>
-      </c>
-      <c r="P25">
-        <v>6942</v>
-      </c>
-      <c r="Q25">
-        <v>465</v>
-      </c>
-      <c r="R25">
-        <v>437</v>
-      </c>
-      <c r="S25">
-        <v>1546</v>
-      </c>
       <c r="T25">
-        <v>1271</v>
+        <v>14</v>
       </c>
       <c r="U25">
-        <v>2601</v>
+        <v>30</v>
       </c>
       <c r="V25">
-        <v>6814</v>
+        <v>51</v>
       </c>
       <c r="W25">
-        <v>0.521</v>
-      </c>
-      <c r="X25">
-        <v>0.083</v>
+        <v>0.44</v>
       </c>
       <c r="Y25">
-        <v>0.706</v>
+        <v>0.389</v>
       </c>
       <c r="Z25">
-        <v>24.4</v>
+        <v>5.2</v>
       </c>
       <c r="AA25">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB25">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD25" t="s">
         <v>150</v>
@@ -3138,76 +3123,73 @@
         <v>20</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>109</v>
+      </c>
+      <c r="I26">
         <v>12</v>
       </c>
-      <c r="G26">
-        <v>601</v>
-      </c>
-      <c r="H26">
-        <v>8403</v>
-      </c>
-      <c r="I26">
-        <v>503</v>
-      </c>
       <c r="J26">
-        <v>1177</v>
+        <v>29</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>381</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>834</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>2219</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>630</v>
+        <v>10</v>
       </c>
       <c r="T26">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="U26">
-        <v>1219</v>
+        <v>19</v>
       </c>
       <c r="V26">
-        <v>1185</v>
+        <v>25</v>
       </c>
       <c r="W26">
-        <v>0.427</v>
-      </c>
-      <c r="X26">
-        <v>0.167</v>
+        <v>0.414</v>
       </c>
       <c r="Y26">
-        <v>0.467</v>
+        <v>0.2</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>6.1</v>
       </c>
       <c r="AA26">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AB26">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="AC26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD26" t="s">
         <v>150</v>
@@ -3230,73 +3212,73 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="H27">
-        <v>5542</v>
+        <v>1174</v>
       </c>
       <c r="I27">
-        <v>903</v>
+        <v>191</v>
       </c>
       <c r="J27">
-        <v>2125</v>
+        <v>414</v>
       </c>
       <c r="K27">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="N27">
-        <v>394</v>
+        <v>73</v>
       </c>
       <c r="O27">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="P27">
-        <v>973</v>
+        <v>219</v>
       </c>
       <c r="Q27">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="R27">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="S27">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="T27">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="U27">
-        <v>512</v>
+        <v>109</v>
       </c>
       <c r="V27">
-        <v>2187</v>
+        <v>437</v>
       </c>
       <c r="W27">
-        <v>0.425</v>
+        <v>0.461</v>
       </c>
       <c r="X27">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.799</v>
+        <v>0.753</v>
       </c>
       <c r="Z27">
-        <v>19.9</v>
+        <v>18.3</v>
       </c>
       <c r="AA27">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC27">
         <v>0.8</v>
@@ -3322,76 +3304,76 @@
         <v>23</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>45</v>
+      </c>
+      <c r="I28">
         <v>9</v>
       </c>
-      <c r="G28">
-        <v>562</v>
-      </c>
-      <c r="H28">
-        <v>10918</v>
-      </c>
-      <c r="I28">
-        <v>1429</v>
-      </c>
       <c r="J28">
-        <v>3231</v>
+        <v>19</v>
       </c>
       <c r="K28">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1172</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>590</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>1384</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>420</v>
+        <v>4</v>
       </c>
       <c r="R28">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>278</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>956</v>
+        <v>9</v>
       </c>
       <c r="V28">
-        <v>3747</v>
+        <v>21</v>
       </c>
       <c r="W28">
-        <v>0.442</v>
+        <v>0.474</v>
       </c>
       <c r="X28">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.785</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
-        <v>19.4</v>
+        <v>4.5</v>
       </c>
       <c r="AA28">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="AB28">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="AC28">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD28" t="s">
         <v>150</v>
@@ -3506,19 +3488,19 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H30">
-        <v>524</v>
+        <v>452</v>
       </c>
       <c r="I30">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J30">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3527,52 +3509,52 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N30">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O30">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P30">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
       <c r="S30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U30">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="V30">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="W30">
-        <v>0.507</v>
+        <v>0.517</v>
       </c>
       <c r="Y30">
-        <v>0.697</v>
+        <v>0.737</v>
       </c>
       <c r="Z30">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA30">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB30">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AC30">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD30" t="s">
         <v>150</v>
@@ -3595,76 +3577,76 @@
         <v>20</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>39</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
         <v>2</v>
       </c>
-      <c r="G31">
-        <v>25</v>
-      </c>
-      <c r="H31">
-        <v>125</v>
-      </c>
-      <c r="I31">
-        <v>11</v>
-      </c>
-      <c r="J31">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
         <v>6</v>
       </c>
-      <c r="M31">
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <v>10</v>
-      </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
-      <c r="P31">
-        <v>17</v>
-      </c>
-      <c r="Q31">
-        <v>17</v>
-      </c>
-      <c r="R31">
-        <v>6</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>13</v>
-      </c>
-      <c r="U31">
-        <v>7</v>
-      </c>
-      <c r="V31">
-        <v>30</v>
-      </c>
       <c r="W31">
-        <v>0.234</v>
+        <v>0.083</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>4.9</v>
+      </c>
+      <c r="AA31">
         <v>0.8</v>
       </c>
-      <c r="Z31">
-        <v>5</v>
-      </c>
-      <c r="AA31">
-        <v>1.2</v>
-      </c>
       <c r="AB31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="s">
         <v>150</v>
@@ -3779,76 +3761,73 @@
         <v>25</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>1233</v>
+        <v>343</v>
       </c>
       <c r="I33">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="J33">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="O33">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="P33">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="R33">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="S33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="U33">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="V33">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="W33">
-        <v>0.409</v>
-      </c>
-      <c r="X33">
-        <v>0.2</v>
+        <v>0.391</v>
       </c>
       <c r="Y33">
-        <v>0.791</v>
+        <v>0.774</v>
       </c>
       <c r="Z33">
-        <v>12</v>
+        <v>15.6</v>
       </c>
       <c r="AA33">
+        <v>3.4</v>
+      </c>
+      <c r="AB33">
         <v>2.9</v>
       </c>
-      <c r="AB33">
-        <v>2.2</v>
-      </c>
       <c r="AC33">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD33" t="s">
         <v>150</v>
@@ -3871,76 +3850,76 @@
         <v>21</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1226</v>
+        <v>82</v>
       </c>
       <c r="H34">
-        <v>41001</v>
+        <v>3007</v>
       </c>
       <c r="I34">
-        <v>7980</v>
+        <v>551</v>
       </c>
       <c r="J34">
-        <v>15729</v>
+        <v>1064</v>
       </c>
       <c r="K34">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>4755</v>
+        <v>338</v>
       </c>
       <c r="N34">
-        <v>6311</v>
+        <v>477</v>
       </c>
       <c r="O34">
-        <v>3085</v>
+        <v>238</v>
       </c>
       <c r="P34">
-        <v>11305</v>
+        <v>730</v>
       </c>
       <c r="Q34">
-        <v>3925</v>
+        <v>223</v>
       </c>
       <c r="R34">
-        <v>606</v>
+        <v>41</v>
       </c>
       <c r="S34">
-        <v>1941</v>
+        <v>169</v>
       </c>
       <c r="T34">
-        <v>2638</v>
+        <v>224</v>
       </c>
       <c r="U34">
-        <v>2632</v>
+        <v>195</v>
       </c>
       <c r="V34">
-        <v>20894</v>
+        <v>1441</v>
       </c>
       <c r="W34">
-        <v>0.507</v>
+        <v>0.518</v>
       </c>
       <c r="X34">
-        <v>0.368</v>
+        <v>0.2</v>
       </c>
       <c r="Y34">
-        <v>0.753</v>
+        <v>0.709</v>
       </c>
       <c r="Z34">
-        <v>33.4</v>
+        <v>36.7</v>
       </c>
       <c r="AA34">
-        <v>17</v>
+        <v>17.6</v>
       </c>
       <c r="AB34">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AC34">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD34" t="s">
         <v>150</v>
@@ -3963,76 +3942,76 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="H35">
-        <v>6729</v>
+        <v>1896</v>
       </c>
       <c r="I35">
-        <v>854</v>
+        <v>244</v>
       </c>
       <c r="J35">
-        <v>2263</v>
+        <v>666</v>
       </c>
       <c r="K35">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="L35">
-        <v>752</v>
+        <v>273</v>
       </c>
       <c r="M35">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="N35">
-        <v>337</v>
+        <v>86</v>
       </c>
       <c r="O35">
-        <v>497</v>
+        <v>117</v>
       </c>
       <c r="P35">
-        <v>1744</v>
+        <v>416</v>
       </c>
       <c r="Q35">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="R35">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="S35">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="T35">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="U35">
-        <v>506</v>
+        <v>117</v>
       </c>
       <c r="V35">
-        <v>2171</v>
+        <v>642</v>
       </c>
       <c r="W35">
-        <v>0.377</v>
+        <v>0.366</v>
       </c>
       <c r="X35">
-        <v>0.315</v>
+        <v>0.33</v>
       </c>
       <c r="Y35">
-        <v>0.671</v>
+        <v>0.744</v>
       </c>
       <c r="Z35">
-        <v>22.2</v>
+        <v>26</v>
       </c>
       <c r="AA35">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB35">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC35">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD35" t="s">
         <v>150</v>
@@ -4147,76 +4126,76 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>644</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>16278</v>
+        <v>2237</v>
       </c>
       <c r="I37">
-        <v>1549</v>
+        <v>267</v>
       </c>
       <c r="J37">
-        <v>3480</v>
+        <v>628</v>
       </c>
       <c r="K37">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="L37">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="M37">
-        <v>548</v>
+        <v>87</v>
       </c>
       <c r="N37">
-        <v>716</v>
+        <v>114</v>
       </c>
       <c r="O37">
-        <v>541</v>
+        <v>65</v>
       </c>
       <c r="P37">
-        <v>1826</v>
+        <v>255</v>
       </c>
       <c r="Q37">
-        <v>1132</v>
+        <v>172</v>
       </c>
       <c r="R37">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="S37">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="T37">
-        <v>597</v>
+        <v>101</v>
       </c>
       <c r="U37">
-        <v>1399</v>
+        <v>184</v>
       </c>
       <c r="V37">
-        <v>3741</v>
+        <v>681</v>
       </c>
       <c r="W37">
-        <v>0.445</v>
+        <v>0.425</v>
       </c>
       <c r="X37">
-        <v>0.318</v>
+        <v>0.364</v>
       </c>
       <c r="Y37">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="Z37">
-        <v>25.3</v>
+        <v>28.7</v>
       </c>
       <c r="AA37">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB37">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AC37">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD37" t="s">
         <v>150</v>
@@ -4239,58 +4218,58 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H38">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="V38">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W38">
-        <v>0.232</v>
+        <v>0.282</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -4299,13 +4278,13 @@
         <v>0.5</v>
       </c>
       <c r="Z38">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AA38">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC38">
         <v>0.3</v>
@@ -4331,73 +4310,70 @@
         <v>22</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>816</v>
+        <v>62</v>
       </c>
       <c r="H39">
-        <v>18680</v>
+        <v>1266</v>
       </c>
       <c r="I39">
-        <v>2110</v>
+        <v>109</v>
       </c>
       <c r="J39">
-        <v>3999</v>
+        <v>221</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1318</v>
+        <v>97</v>
       </c>
       <c r="N39">
-        <v>2246</v>
+        <v>160</v>
       </c>
       <c r="O39">
-        <v>2081</v>
+        <v>143</v>
       </c>
       <c r="P39">
-        <v>4875</v>
+        <v>322</v>
       </c>
       <c r="Q39">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="R39">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="S39">
-        <v>1109</v>
+        <v>91</v>
       </c>
       <c r="T39">
-        <v>851</v>
+        <v>50</v>
       </c>
       <c r="U39">
-        <v>2043</v>
+        <v>158</v>
       </c>
       <c r="V39">
-        <v>5538</v>
+        <v>315</v>
       </c>
       <c r="W39">
-        <v>0.528</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
+        <v>0.493</v>
       </c>
       <c r="Y39">
-        <v>0.587</v>
+        <v>0.606</v>
       </c>
       <c r="Z39">
-        <v>22.9</v>
+        <v>20.4</v>
       </c>
       <c r="AA39">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="AB39">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AC39">
         <v>0.5</v>
@@ -4423,76 +4399,73 @@
         <v>20</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="H40">
-        <v>5993</v>
+        <v>516</v>
       </c>
       <c r="I40">
-        <v>735</v>
+        <v>67</v>
       </c>
       <c r="J40">
-        <v>1313</v>
+        <v>147</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="N40">
-        <v>715</v>
+        <v>94</v>
       </c>
       <c r="O40">
-        <v>482</v>
+        <v>40</v>
       </c>
       <c r="P40">
-        <v>1264</v>
+        <v>97</v>
       </c>
       <c r="Q40">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="S40">
-        <v>422</v>
+        <v>43</v>
       </c>
       <c r="T40">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="U40">
-        <v>656</v>
+        <v>81</v>
       </c>
       <c r="V40">
-        <v>1817</v>
+        <v>189</v>
       </c>
       <c r="W40">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="Y40">
-        <v>0.485</v>
+        <v>0.585</v>
       </c>
       <c r="Z40">
-        <v>15</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA40">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB40">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="AC40">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD40" t="s">
         <v>150</v>
@@ -4515,76 +4488,76 @@
         <v>26</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>595</v>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>14364</v>
+        <v>119</v>
       </c>
       <c r="I41">
-        <v>2139</v>
+        <v>15</v>
       </c>
       <c r="J41">
-        <v>5132</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>687</v>
+        <v>8</v>
       </c>
       <c r="L41">
-        <v>1813</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>898</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>1120</v>
+        <v>7</v>
       </c>
       <c r="O41">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>1324</v>
+        <v>14</v>
       </c>
       <c r="Q41">
-        <v>2075</v>
+        <v>19</v>
       </c>
       <c r="R41">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>895</v>
+        <v>13</v>
       </c>
       <c r="U41">
-        <v>1201</v>
+        <v>17</v>
       </c>
       <c r="V41">
-        <v>5863</v>
+        <v>42</v>
       </c>
       <c r="W41">
-        <v>0.417</v>
+        <v>0.349</v>
       </c>
       <c r="X41">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="Y41">
-        <v>0.802</v>
+        <v>0.571</v>
       </c>
       <c r="Z41">
-        <v>24.1</v>
+        <v>7.9</v>
       </c>
       <c r="AA41">
-        <v>9.9</v>
+        <v>2.8</v>
       </c>
       <c r="AB41">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="AC41">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD41" t="s">
         <v>150</v>
@@ -4607,76 +4580,76 @@
         <v>21</v>
       </c>
       <c r="F42">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1181</v>
+        <v>79</v>
       </c>
       <c r="H42">
-        <v>34293</v>
+        <v>1917</v>
       </c>
       <c r="I42">
-        <v>5150</v>
+        <v>270</v>
       </c>
       <c r="J42">
-        <v>11102</v>
+        <v>591</v>
       </c>
       <c r="K42">
-        <v>1042</v>
+        <v>13</v>
       </c>
       <c r="L42">
-        <v>2769</v>
+        <v>56</v>
       </c>
       <c r="M42">
-        <v>3562</v>
+        <v>189</v>
       </c>
       <c r="N42">
-        <v>4639</v>
+        <v>265</v>
       </c>
       <c r="O42">
-        <v>917</v>
+        <v>85</v>
       </c>
       <c r="P42">
-        <v>4720</v>
+        <v>293</v>
       </c>
       <c r="Q42">
-        <v>2412</v>
+        <v>140</v>
       </c>
       <c r="R42">
-        <v>787</v>
+        <v>64</v>
       </c>
       <c r="S42">
-        <v>347</v>
+        <v>48</v>
       </c>
       <c r="T42">
-        <v>1768</v>
+        <v>107</v>
       </c>
       <c r="U42">
-        <v>2637</v>
+        <v>211</v>
       </c>
       <c r="V42">
-        <v>14904</v>
+        <v>742</v>
       </c>
       <c r="W42">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="X42">
-        <v>0.376</v>
+        <v>0.232</v>
       </c>
       <c r="Y42">
-        <v>0.768</v>
+        <v>0.713</v>
       </c>
       <c r="Z42">
-        <v>29</v>
+        <v>24.3</v>
       </c>
       <c r="AA42">
-        <v>12.6</v>
+        <v>9.4</v>
       </c>
       <c r="AB42">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD42" t="s">
         <v>150</v>
@@ -4699,76 +4672,76 @@
         <v>20</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>1276</v>
+        <v>77</v>
       </c>
       <c r="H43">
-        <v>44234</v>
+        <v>1916</v>
       </c>
       <c r="I43">
-        <v>7822</v>
+        <v>251</v>
       </c>
       <c r="J43">
-        <v>17719</v>
+        <v>584</v>
       </c>
       <c r="K43">
-        <v>1978</v>
+        <v>38</v>
       </c>
       <c r="L43">
-        <v>5331</v>
+        <v>130</v>
       </c>
       <c r="M43">
-        <v>2783</v>
+        <v>41</v>
       </c>
       <c r="N43">
-        <v>3468</v>
+        <v>53</v>
       </c>
       <c r="O43">
-        <v>1067</v>
+        <v>75</v>
       </c>
       <c r="P43">
-        <v>5059</v>
+        <v>257</v>
       </c>
       <c r="Q43">
-        <v>5001</v>
+        <v>179</v>
       </c>
       <c r="R43">
-        <v>1071</v>
+        <v>59</v>
       </c>
       <c r="S43">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="T43">
-        <v>2451</v>
+        <v>71</v>
       </c>
       <c r="U43">
-        <v>2252</v>
+        <v>114</v>
       </c>
       <c r="V43">
-        <v>20405</v>
+        <v>581</v>
       </c>
       <c r="W43">
-        <v>0.441</v>
+        <v>0.43</v>
       </c>
       <c r="X43">
-        <v>0.371</v>
+        <v>0.292</v>
       </c>
       <c r="Y43">
-        <v>0.802</v>
+        <v>0.774</v>
       </c>
       <c r="Z43">
-        <v>34.7</v>
+        <v>24.9</v>
       </c>
       <c r="AA43">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="AB43">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AC43">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="AD43" t="s">
         <v>150</v>
@@ -4880,76 +4853,76 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>797</v>
+        <v>82</v>
       </c>
       <c r="H45">
-        <v>23916</v>
+        <v>2151</v>
       </c>
       <c r="I45">
-        <v>3146</v>
+        <v>285</v>
       </c>
       <c r="J45">
-        <v>6637</v>
+        <v>633</v>
       </c>
       <c r="K45">
-        <v>367</v>
+        <v>25</v>
       </c>
       <c r="L45">
-        <v>1185</v>
+        <v>100</v>
       </c>
       <c r="M45">
-        <v>2772</v>
+        <v>285</v>
       </c>
       <c r="N45">
-        <v>3675</v>
+        <v>371</v>
       </c>
       <c r="O45">
-        <v>1400</v>
+        <v>149</v>
       </c>
       <c r="P45">
-        <v>4352</v>
+        <v>402</v>
       </c>
       <c r="Q45">
-        <v>2169</v>
+        <v>94</v>
       </c>
       <c r="R45">
-        <v>1097</v>
+        <v>116</v>
       </c>
       <c r="S45">
-        <v>1461</v>
+        <v>159</v>
       </c>
       <c r="T45">
-        <v>1518</v>
+        <v>108</v>
       </c>
       <c r="U45">
-        <v>1605</v>
+        <v>156</v>
       </c>
       <c r="V45">
-        <v>9431</v>
+        <v>880</v>
       </c>
       <c r="W45">
-        <v>0.474</v>
+        <v>0.45</v>
       </c>
       <c r="X45">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="Y45">
-        <v>0.754</v>
+        <v>0.768</v>
       </c>
       <c r="Z45">
-        <v>30</v>
+        <v>26.2</v>
       </c>
       <c r="AA45">
-        <v>11.8</v>
+        <v>10.7</v>
       </c>
       <c r="AB45">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AC45">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD45" t="s">
         <v>150</v>
@@ -4972,76 +4945,76 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="H46">
-        <v>1934</v>
+        <v>1110</v>
       </c>
       <c r="I46">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="J46">
-        <v>514</v>
+        <v>289</v>
       </c>
       <c r="K46">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L46">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N46">
+        <v>28</v>
+      </c>
+      <c r="O46">
+        <v>77</v>
+      </c>
+      <c r="P46">
+        <v>211</v>
+      </c>
+      <c r="Q46">
+        <v>64</v>
+      </c>
+      <c r="R46">
+        <v>21</v>
+      </c>
+      <c r="S46">
+        <v>27</v>
+      </c>
+      <c r="T46">
         <v>45</v>
       </c>
-      <c r="O46">
-        <v>123</v>
-      </c>
-      <c r="P46">
-        <v>377</v>
-      </c>
-      <c r="Q46">
-        <v>93</v>
-      </c>
-      <c r="R46">
-        <v>35</v>
-      </c>
-      <c r="S46">
-        <v>49</v>
-      </c>
-      <c r="T46">
-        <v>81</v>
-      </c>
       <c r="U46">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="V46">
-        <v>472</v>
+        <v>255</v>
       </c>
       <c r="W46">
-        <v>0.407</v>
+        <v>0.384</v>
       </c>
       <c r="X46">
-        <v>0.196</v>
+        <v>0.192</v>
       </c>
       <c r="Y46">
-        <v>0.711</v>
+        <v>0.643</v>
       </c>
       <c r="Z46">
-        <v>13.9</v>
+        <v>16.3</v>
       </c>
       <c r="AA46">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB46">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AC46">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD46" t="s">
         <v>150</v>
@@ -5064,76 +5037,76 @@
         <v>21</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>729</v>
+        <v>82</v>
       </c>
       <c r="H47">
-        <v>19921</v>
+        <v>1448</v>
       </c>
       <c r="I47">
-        <v>2848</v>
+        <v>178</v>
       </c>
       <c r="J47">
-        <v>6400</v>
+        <v>423</v>
       </c>
       <c r="K47">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>1578</v>
+        <v>9</v>
       </c>
       <c r="M47">
-        <v>1551</v>
+        <v>121</v>
       </c>
       <c r="N47">
-        <v>1977</v>
+        <v>156</v>
       </c>
       <c r="O47">
-        <v>1373</v>
+        <v>99</v>
       </c>
       <c r="P47">
-        <v>5708</v>
+        <v>322</v>
       </c>
       <c r="Q47">
-        <v>1088</v>
+        <v>70</v>
       </c>
       <c r="R47">
-        <v>478</v>
+        <v>36</v>
       </c>
       <c r="S47">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="T47">
-        <v>886</v>
+        <v>84</v>
       </c>
       <c r="U47">
-        <v>1890</v>
+        <v>217</v>
       </c>
       <c r="V47">
-        <v>7860</v>
+        <v>480</v>
       </c>
       <c r="W47">
-        <v>0.445</v>
+        <v>0.421</v>
       </c>
       <c r="X47">
-        <v>0.388</v>
+        <v>0.333</v>
       </c>
       <c r="Y47">
-        <v>0.785</v>
+        <v>0.776</v>
       </c>
       <c r="Z47">
-        <v>27.3</v>
+        <v>17.7</v>
       </c>
       <c r="AA47">
-        <v>10.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB47">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="AC47">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD47" t="s">
         <v>150</v>
@@ -5156,76 +5129,76 @@
         <v>23</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>139</v>
+      </c>
+      <c r="I48">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>46</v>
+      </c>
+      <c r="K48">
         <v>2</v>
       </c>
-      <c r="G48">
-        <v>35</v>
-      </c>
-      <c r="H48">
-        <v>232</v>
-      </c>
-      <c r="I48">
-        <v>24</v>
-      </c>
-      <c r="J48">
-        <v>75</v>
-      </c>
-      <c r="K48">
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>8</v>
+      </c>
+      <c r="Q48">
+        <v>21</v>
+      </c>
+      <c r="R48">
         <v>3</v>
       </c>
-      <c r="L48">
-        <v>19</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>17</v>
-      </c>
-      <c r="O48">
-        <v>8</v>
-      </c>
-      <c r="P48">
-        <v>24</v>
-      </c>
-      <c r="Q48">
-        <v>44</v>
-      </c>
-      <c r="R48">
-        <v>10</v>
-      </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="U48">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V48">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W48">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="X48">
-        <v>0.158</v>
+        <v>0.154</v>
       </c>
       <c r="Y48">
-        <v>0.765</v>
+        <v>0.667</v>
       </c>
       <c r="Z48">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA48">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AB48">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AC48">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD48" t="s">
         <v>150</v>
@@ -5248,76 +5221,76 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>1254</v>
+        <v>77</v>
       </c>
       <c r="H49">
-        <v>38279</v>
+        <v>2267</v>
       </c>
       <c r="I49">
-        <v>7777</v>
+        <v>268</v>
       </c>
       <c r="J49">
-        <v>15830</v>
+        <v>639</v>
       </c>
       <c r="K49">
-        <v>519</v>
+        <v>61</v>
       </c>
       <c r="L49">
-        <v>1603</v>
+        <v>189</v>
       </c>
       <c r="M49">
-        <v>3400</v>
+        <v>108</v>
       </c>
       <c r="N49">
-        <v>4525</v>
+        <v>160</v>
       </c>
       <c r="O49">
-        <v>441</v>
+        <v>33</v>
       </c>
       <c r="P49">
-        <v>3396</v>
+        <v>197</v>
       </c>
       <c r="Q49">
-        <v>7036</v>
+        <v>334</v>
       </c>
       <c r="R49">
-        <v>1053</v>
+        <v>89</v>
       </c>
       <c r="S49">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="T49">
-        <v>2865</v>
+        <v>151</v>
       </c>
       <c r="U49">
-        <v>2059</v>
+        <v>166</v>
       </c>
       <c r="V49">
-        <v>19473</v>
+        <v>705</v>
       </c>
       <c r="W49">
-        <v>0.491</v>
+        <v>0.419</v>
       </c>
       <c r="X49">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="Y49">
-        <v>0.751</v>
+        <v>0.675</v>
       </c>
       <c r="Z49">
-        <v>30.5</v>
+        <v>29.4</v>
       </c>
       <c r="AA49">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB49">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AC49">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD49" t="s">
         <v>150</v>
@@ -5340,76 +5313,76 @@
         <v>21</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>737</v>
+        <v>61</v>
       </c>
       <c r="H50">
-        <v>16164</v>
+        <v>1230</v>
       </c>
       <c r="I50">
-        <v>2148</v>
+        <v>146</v>
       </c>
       <c r="J50">
-        <v>5177</v>
+        <v>354</v>
       </c>
       <c r="K50">
-        <v>971</v>
+        <v>66</v>
       </c>
       <c r="L50">
-        <v>2567</v>
+        <v>157</v>
       </c>
       <c r="M50">
-        <v>612</v>
+        <v>49</v>
       </c>
       <c r="N50">
-        <v>807</v>
+        <v>72</v>
       </c>
       <c r="O50">
-        <v>654</v>
+        <v>45</v>
       </c>
       <c r="P50">
-        <v>2784</v>
+        <v>230</v>
       </c>
       <c r="Q50">
-        <v>998</v>
+        <v>81</v>
       </c>
       <c r="R50">
-        <v>537</v>
+        <v>56</v>
       </c>
       <c r="S50">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="T50">
-        <v>837</v>
+        <v>72</v>
       </c>
       <c r="U50">
-        <v>1552</v>
+        <v>119</v>
       </c>
       <c r="V50">
-        <v>5879</v>
+        <v>407</v>
       </c>
       <c r="W50">
-        <v>0.415</v>
+        <v>0.412</v>
       </c>
       <c r="X50">
-        <v>0.378</v>
+        <v>0.42</v>
       </c>
       <c r="Y50">
-        <v>0.758</v>
+        <v>0.681</v>
       </c>
       <c r="Z50">
-        <v>21.9</v>
+        <v>20.2</v>
       </c>
       <c r="AA50">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AB50">
         <v>3.8</v>
       </c>
       <c r="AC50">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD50" t="s">
         <v>150</v>
@@ -5432,76 +5405,73 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>1116</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>34616</v>
+        <v>238</v>
       </c>
       <c r="I51">
-        <v>7436</v>
+        <v>48</v>
       </c>
       <c r="J51">
-        <v>15774</v>
+        <v>107</v>
       </c>
       <c r="K51">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>3507</v>
+        <v>18</v>
       </c>
       <c r="N51">
-        <v>4592</v>
+        <v>27</v>
       </c>
       <c r="O51">
-        <v>3279</v>
+        <v>31</v>
       </c>
       <c r="P51">
-        <v>10208</v>
+        <v>69</v>
       </c>
       <c r="Q51">
-        <v>2049</v>
+        <v>13</v>
       </c>
       <c r="R51">
-        <v>834</v>
+        <v>7</v>
       </c>
       <c r="S51">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>2290</v>
+        <v>15</v>
       </c>
       <c r="U51">
-        <v>2629</v>
+        <v>29</v>
       </c>
       <c r="V51">
-        <v>18578</v>
+        <v>114</v>
       </c>
       <c r="W51">
-        <v>0.471</v>
-      </c>
-      <c r="X51">
-        <v>0.273</v>
+        <v>0.449</v>
       </c>
       <c r="Y51">
-        <v>0.764</v>
+        <v>0.667</v>
       </c>
       <c r="Z51">
-        <v>31</v>
+        <v>5.8</v>
       </c>
       <c r="AA51">
-        <v>16.6</v>
+        <v>2.8</v>
       </c>
       <c r="AB51">
-        <v>9.1</v>
+        <v>1.7</v>
       </c>
       <c r="AC51">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD51" t="s">
         <v>150</v>
@@ -5524,19 +5494,19 @@
         <v>29</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="H52">
-        <v>3280</v>
+        <v>1179</v>
       </c>
       <c r="I52">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="J52">
-        <v>926</v>
+        <v>374</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5545,52 +5515,52 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N52">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="O52">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="P52">
-        <v>688</v>
+        <v>290</v>
       </c>
       <c r="Q52">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="R52">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="S52">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="T52">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="U52">
-        <v>512</v>
+        <v>192</v>
       </c>
       <c r="V52">
-        <v>1276</v>
+        <v>513</v>
       </c>
       <c r="W52">
-        <v>0.527</v>
+        <v>0.505</v>
       </c>
       <c r="Y52">
-        <v>0.792</v>
+        <v>0.771</v>
       </c>
       <c r="Z52">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="AA52">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="AB52">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AC52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD52" t="s">
         <v>150</v>
@@ -5613,76 +5583,76 @@
         <v>21</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>857</v>
+        <v>80</v>
       </c>
       <c r="H53">
-        <v>29241</v>
+        <v>2629</v>
       </c>
       <c r="I53">
-        <v>5558</v>
+        <v>464</v>
       </c>
       <c r="J53">
-        <v>12681</v>
+        <v>1090</v>
       </c>
       <c r="K53">
-        <v>1608</v>
+        <v>82</v>
       </c>
       <c r="L53">
-        <v>4344</v>
+        <v>246</v>
       </c>
       <c r="M53">
-        <v>1920</v>
+        <v>141</v>
       </c>
       <c r="N53">
-        <v>2714</v>
+        <v>210</v>
       </c>
       <c r="O53">
-        <v>1033</v>
+        <v>124</v>
       </c>
       <c r="P53">
-        <v>4245</v>
+        <v>340</v>
       </c>
       <c r="Q53">
-        <v>2284</v>
+        <v>236</v>
       </c>
       <c r="R53">
-        <v>995</v>
+        <v>106</v>
       </c>
       <c r="S53">
-        <v>367</v>
+        <v>31</v>
       </c>
       <c r="T53">
-        <v>1503</v>
+        <v>160</v>
       </c>
       <c r="U53">
-        <v>1963</v>
+        <v>195</v>
       </c>
       <c r="V53">
-        <v>14644</v>
+        <v>1151</v>
       </c>
       <c r="W53">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="X53">
-        <v>0.37</v>
+        <v>0.333</v>
       </c>
       <c r="Y53">
-        <v>0.707</v>
+        <v>0.671</v>
       </c>
       <c r="Z53">
-        <v>34.1</v>
+        <v>32.9</v>
       </c>
       <c r="AA53">
-        <v>17.1</v>
+        <v>14.4</v>
       </c>
       <c r="AB53">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AC53">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AD53" t="s">
         <v>150</v>
@@ -5797,76 +5767,73 @@
         <v>22</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>36</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>14</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="Q55">
         <v>2</v>
       </c>
-      <c r="G55">
-        <v>82</v>
-      </c>
-      <c r="H55">
-        <v>1061</v>
-      </c>
-      <c r="I55">
-        <v>67</v>
-      </c>
-      <c r="J55">
-        <v>221</v>
-      </c>
-      <c r="K55">
-        <v>13</v>
-      </c>
-      <c r="L55">
-        <v>44</v>
-      </c>
-      <c r="M55">
-        <v>57</v>
-      </c>
-      <c r="N55">
-        <v>83</v>
-      </c>
-      <c r="O55">
-        <v>67</v>
-      </c>
-      <c r="P55">
-        <v>191</v>
-      </c>
-      <c r="Q55">
-        <v>67</v>
-      </c>
       <c r="R55">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="V55">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="W55">
-        <v>0.303</v>
-      </c>
-      <c r="X55">
-        <v>0.295</v>
+        <v>0.214</v>
       </c>
       <c r="Y55">
-        <v>0.6870000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z55">
-        <v>12.9</v>
+        <v>5.1</v>
       </c>
       <c r="AA55">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB55">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD55" t="s">
         <v>150</v>
@@ -5889,76 +5856,76 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>1062</v>
+        <v>560</v>
       </c>
       <c r="I56">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="J56">
-        <v>382</v>
+        <v>199</v>
       </c>
       <c r="K56">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M56">
+        <v>36</v>
+      </c>
+      <c r="N56">
+        <v>46</v>
+      </c>
+      <c r="O56">
+        <v>17</v>
+      </c>
+      <c r="P56">
+        <v>52</v>
+      </c>
+      <c r="Q56">
+        <v>108</v>
+      </c>
+      <c r="R56">
+        <v>31</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
         <v>53</v>
       </c>
-      <c r="N56">
-        <v>71</v>
-      </c>
-      <c r="O56">
-        <v>33</v>
-      </c>
-      <c r="P56">
-        <v>95</v>
-      </c>
-      <c r="Q56">
-        <v>176</v>
-      </c>
-      <c r="R56">
-        <v>51</v>
-      </c>
-      <c r="S56">
+      <c r="U56">
+        <v>43</v>
+      </c>
+      <c r="V56">
+        <v>189</v>
+      </c>
+      <c r="W56">
+        <v>0.367</v>
+      </c>
+      <c r="X56">
+        <v>0.259</v>
+      </c>
+      <c r="Y56">
+        <v>0.783</v>
+      </c>
+      <c r="Z56">
+        <v>15.6</v>
+      </c>
+      <c r="AA56">
+        <v>5.3</v>
+      </c>
+      <c r="AB56">
+        <v>1.4</v>
+      </c>
+      <c r="AC56">
         <v>3</v>
-      </c>
-      <c r="T56">
-        <v>96</v>
-      </c>
-      <c r="U56">
-        <v>79</v>
-      </c>
-      <c r="V56">
-        <v>321</v>
-      </c>
-      <c r="W56">
-        <v>0.335</v>
-      </c>
-      <c r="X56">
-        <v>0.218</v>
-      </c>
-      <c r="Y56">
-        <v>0.746</v>
-      </c>
-      <c r="Z56">
-        <v>14.2</v>
-      </c>
-      <c r="AA56">
-        <v>4.3</v>
-      </c>
-      <c r="AB56">
-        <v>1.3</v>
-      </c>
-      <c r="AC56">
-        <v>2.3</v>
       </c>
       <c r="AD56" t="s">
         <v>150</v>
@@ -5981,73 +5948,73 @@
         <v>23</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>28</v>
+      </c>
+      <c r="H57">
+        <v>290</v>
+      </c>
+      <c r="I57">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <v>67</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
         <v>11</v>
       </c>
-      <c r="G57">
-        <v>520</v>
-      </c>
-      <c r="H57">
-        <v>6772</v>
-      </c>
-      <c r="I57">
-        <v>590</v>
-      </c>
-      <c r="J57">
-        <v>1512</v>
-      </c>
-      <c r="K57">
-        <v>180</v>
-      </c>
-      <c r="L57">
-        <v>523</v>
-      </c>
-      <c r="M57">
-        <v>234</v>
-      </c>
       <c r="N57">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="O57">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="P57">
-        <v>1034</v>
+        <v>51</v>
       </c>
       <c r="Q57">
-        <v>436</v>
+        <v>21</v>
       </c>
       <c r="R57">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="S57">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>341</v>
+        <v>24</v>
       </c>
       <c r="U57">
-        <v>819</v>
+        <v>39</v>
       </c>
       <c r="V57">
-        <v>1594</v>
+        <v>60</v>
       </c>
       <c r="W57">
-        <v>0.39</v>
+        <v>0.343</v>
       </c>
       <c r="X57">
-        <v>0.344</v>
+        <v>0.3</v>
       </c>
       <c r="Y57">
-        <v>0.783</v>
+        <v>0.733</v>
       </c>
       <c r="Z57">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="AA57">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AB57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC57">
         <v>0.8</v>
@@ -6073,76 +6040,73 @@
         <v>25</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>1301</v>
+        <v>142</v>
       </c>
       <c r="I58">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="J58">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>20</v>
+      </c>
+      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <v>20</v>
+      </c>
+      <c r="Q58">
         <v>8</v>
       </c>
-      <c r="L58">
-        <v>29</v>
-      </c>
-      <c r="M58">
-        <v>71</v>
-      </c>
-      <c r="N58">
-        <v>111</v>
-      </c>
-      <c r="O58">
-        <v>102</v>
-      </c>
-      <c r="P58">
-        <v>223</v>
-      </c>
-      <c r="Q58">
-        <v>62</v>
-      </c>
       <c r="R58">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S58">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>18</v>
+      </c>
+      <c r="V58">
         <v>58</v>
       </c>
-      <c r="U58">
-        <v>162</v>
-      </c>
-      <c r="V58">
-        <v>401</v>
-      </c>
       <c r="W58">
-        <v>0.434</v>
-      </c>
-      <c r="X58">
-        <v>0.276</v>
+        <v>0.5</v>
       </c>
       <c r="Y58">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="Z58">
-        <v>10.2</v>
+        <v>15.8</v>
       </c>
       <c r="AA58">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB58">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD58" t="s">
         <v>150</v>
@@ -6165,76 +6129,76 @@
         <v>21</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>11513</v>
+        <v>343</v>
       </c>
       <c r="I59">
-        <v>1551</v>
+        <v>43</v>
       </c>
       <c r="J59">
-        <v>3552</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>955</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>709</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>862</v>
+        <v>30</v>
       </c>
       <c r="O59">
-        <v>559</v>
+        <v>25</v>
       </c>
       <c r="P59">
-        <v>1791</v>
+        <v>52</v>
       </c>
       <c r="Q59">
-        <v>710</v>
+        <v>17</v>
       </c>
       <c r="R59">
-        <v>396</v>
+        <v>13</v>
       </c>
       <c r="S59">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>522</v>
+        <v>14</v>
       </c>
       <c r="U59">
-        <v>1153</v>
+        <v>31</v>
       </c>
       <c r="V59">
-        <v>4189</v>
+        <v>112</v>
       </c>
       <c r="W59">
-        <v>0.437</v>
+        <v>0.453</v>
       </c>
       <c r="X59">
-        <v>0.396</v>
+        <v>0.286</v>
       </c>
       <c r="Y59">
-        <v>0.823</v>
+        <v>0.733</v>
       </c>
       <c r="Z59">
-        <v>24.7</v>
+        <v>11.4</v>
       </c>
       <c r="AA59">
-        <v>9</v>
+        <v>3.7</v>
       </c>
       <c r="AB59">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC59">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD59" t="s">
         <v>150</v>
@@ -6257,19 +6221,19 @@
         <v>21</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J60">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6284,10 +6248,10 @@
         <v>17</v>
       </c>
       <c r="O60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P60">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -6302,19 +6266,19 @@
         <v>3</v>
       </c>
       <c r="U60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V60">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W60">
-        <v>0.393</v>
+        <v>0.385</v>
       </c>
       <c r="Y60">
         <v>0.647</v>
       </c>
       <c r="Z60">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA60">
         <v>2.2</v>
@@ -6346,76 +6310,76 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H61">
-        <v>1584</v>
+        <v>872</v>
       </c>
       <c r="I61">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="J61">
-        <v>576</v>
+        <v>331</v>
       </c>
       <c r="K61">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="L61">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="M61">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N61">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="O61">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P61">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="Q61">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="R61">
+        <v>35</v>
+      </c>
+      <c r="S61">
+        <v>7</v>
+      </c>
+      <c r="T61">
         <v>62</v>
       </c>
-      <c r="S61">
-        <v>11</v>
-      </c>
-      <c r="T61">
-        <v>116</v>
-      </c>
       <c r="U61">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="V61">
-        <v>584</v>
+        <v>321</v>
       </c>
       <c r="W61">
-        <v>0.378</v>
+        <v>0.341</v>
       </c>
       <c r="X61">
-        <v>0.298</v>
+        <v>0.284</v>
       </c>
       <c r="Y61">
-        <v>0.6919999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="Z61">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="AA61">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB61">
         <v>1.1</v>
       </c>
       <c r="AC61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AD61" t="s">
         <v>150</v>
@@ -6438,19 +6402,19 @@
         <v>23</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>409</v>
+        <v>47</v>
       </c>
       <c r="H62">
-        <v>7084</v>
+        <v>618</v>
       </c>
       <c r="I62">
-        <v>890</v>
+        <v>81</v>
       </c>
       <c r="J62">
-        <v>1734</v>
+        <v>151</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6459,52 +6423,52 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>561</v>
+        <v>41</v>
       </c>
       <c r="N62">
-        <v>930</v>
+        <v>74</v>
       </c>
       <c r="O62">
-        <v>677</v>
+        <v>55</v>
       </c>
       <c r="P62">
-        <v>1927</v>
+        <v>181</v>
       </c>
       <c r="Q62">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="R62">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="S62">
-        <v>427</v>
+        <v>35</v>
       </c>
       <c r="T62">
-        <v>385</v>
+        <v>26</v>
       </c>
       <c r="U62">
-        <v>889</v>
+        <v>76</v>
       </c>
       <c r="V62">
-        <v>2341</v>
+        <v>203</v>
       </c>
       <c r="W62">
-        <v>0.513</v>
+        <v>0.536</v>
       </c>
       <c r="Y62">
-        <v>0.603</v>
+        <v>0.554</v>
       </c>
       <c r="Z62">
-        <v>17.3</v>
+        <v>13.1</v>
       </c>
       <c r="AA62">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="AB62">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AC62">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD62" t="s">
         <v>150</v>
@@ -6527,76 +6491,76 @@
         <v>23</v>
       </c>
       <c r="F63">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="H63">
-        <v>14443</v>
+        <v>2442</v>
       </c>
       <c r="I63">
-        <v>1759</v>
+        <v>289</v>
       </c>
       <c r="J63">
-        <v>4481</v>
+        <v>760</v>
       </c>
       <c r="K63">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="L63">
-        <v>1326</v>
+        <v>175</v>
       </c>
       <c r="M63">
-        <v>737</v>
+        <v>131</v>
       </c>
       <c r="N63">
-        <v>1029</v>
+        <v>186</v>
       </c>
       <c r="O63">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="P63">
-        <v>1605</v>
+        <v>298</v>
       </c>
       <c r="Q63">
-        <v>3330</v>
+        <v>647</v>
       </c>
       <c r="R63">
-        <v>776</v>
+        <v>138</v>
       </c>
       <c r="S63">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="T63">
-        <v>1375</v>
+        <v>270</v>
       </c>
       <c r="U63">
-        <v>1306</v>
+        <v>248</v>
       </c>
       <c r="V63">
-        <v>4652</v>
+        <v>751</v>
       </c>
       <c r="W63">
-        <v>0.393</v>
+        <v>0.38</v>
       </c>
       <c r="X63">
-        <v>0.299</v>
+        <v>0.24</v>
       </c>
       <c r="Y63">
-        <v>0.716</v>
+        <v>0.704</v>
       </c>
       <c r="Z63">
-        <v>26.4</v>
+        <v>30.5</v>
       </c>
       <c r="AA63">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="AB63">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="AC63">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="AD63" t="s">
         <v>150</v>
@@ -6619,76 +6583,76 @@
         <v>25</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
+        <v>65</v>
+      </c>
+      <c r="H64">
+        <v>1075</v>
+      </c>
+      <c r="I64">
+        <v>135</v>
+      </c>
+      <c r="J64">
+        <v>341</v>
+      </c>
+      <c r="K64">
+        <v>37</v>
+      </c>
+      <c r="L64">
+        <v>126</v>
+      </c>
+      <c r="M64">
         <v>82</v>
       </c>
-      <c r="H64">
-        <v>1184</v>
-      </c>
-      <c r="I64">
-        <v>151</v>
-      </c>
-      <c r="J64">
-        <v>377</v>
-      </c>
-      <c r="K64">
-        <v>44</v>
-      </c>
-      <c r="L64">
-        <v>139</v>
-      </c>
-      <c r="M64">
-        <v>96</v>
-      </c>
       <c r="N64">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="O64">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P64">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q64">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R64">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T64">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="U64">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="V64">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="W64">
-        <v>0.401</v>
+        <v>0.396</v>
       </c>
       <c r="X64">
-        <v>0.317</v>
+        <v>0.294</v>
       </c>
       <c r="Y64">
-        <v>0.768</v>
+        <v>0.781</v>
       </c>
       <c r="Z64">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="AA64">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AB64">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC64">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD64" t="s">
         <v>150</v>
@@ -6711,76 +6675,76 @@
         <v>22</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>77</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>23</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65">
         <v>3</v>
       </c>
-      <c r="G65">
-        <v>31</v>
-      </c>
-      <c r="H65">
-        <v>270</v>
-      </c>
-      <c r="I65">
-        <v>34</v>
-      </c>
-      <c r="J65">
-        <v>101</v>
-      </c>
-      <c r="K65">
-        <v>6</v>
-      </c>
-      <c r="L65">
-        <v>13</v>
-      </c>
-      <c r="M65">
-        <v>14</v>
-      </c>
-      <c r="N65">
-        <v>20</v>
-      </c>
-      <c r="O65">
-        <v>17</v>
-      </c>
       <c r="P65">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R65">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="S65">
         <v>4</v>
       </c>
       <c r="T65">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U65">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="V65">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="W65">
-        <v>0.337</v>
+        <v>0.304</v>
       </c>
       <c r="X65">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="Z65">
-        <v>8.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AA65">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="AB65">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD65" t="s">
         <v>150</v>
@@ -6892,76 +6856,76 @@
         <v>19</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>832</v>
+        <v>54</v>
       </c>
       <c r="H67">
-        <v>24731</v>
+        <v>430</v>
       </c>
       <c r="I67">
-        <v>3516</v>
+        <v>75</v>
       </c>
       <c r="J67">
-        <v>7492</v>
+        <v>175</v>
       </c>
       <c r="K67">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1303</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>2494</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>3517</v>
+        <v>46</v>
       </c>
       <c r="O67">
-        <v>1145</v>
+        <v>49</v>
       </c>
       <c r="P67">
-        <v>4838</v>
+        <v>89</v>
       </c>
       <c r="Q67">
-        <v>1725</v>
+        <v>27</v>
       </c>
       <c r="R67">
-        <v>1200</v>
+        <v>19</v>
       </c>
       <c r="S67">
-        <v>681</v>
+        <v>6</v>
       </c>
       <c r="T67">
-        <v>1486</v>
+        <v>22</v>
       </c>
       <c r="U67">
-        <v>1829</v>
+        <v>46</v>
       </c>
       <c r="V67">
-        <v>9933</v>
+        <v>173</v>
       </c>
       <c r="W67">
-        <v>0.469</v>
+        <v>0.429</v>
       </c>
       <c r="X67">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.709</v>
+        <v>0.5</v>
       </c>
       <c r="Z67">
-        <v>29.7</v>
+        <v>8</v>
       </c>
       <c r="AA67">
-        <v>11.9</v>
+        <v>3.2</v>
       </c>
       <c r="AB67">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC67">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD67" t="s">
         <v>150</v>
@@ -6984,76 +6948,76 @@
         <v>22</v>
       </c>
       <c r="F68">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>878</v>
+        <v>64</v>
       </c>
       <c r="H68">
-        <v>19494</v>
+        <v>964</v>
       </c>
       <c r="I68">
-        <v>2112</v>
+        <v>96</v>
       </c>
       <c r="J68">
-        <v>5139</v>
+        <v>212</v>
       </c>
       <c r="K68">
-        <v>502</v>
+        <v>16</v>
       </c>
       <c r="L68">
-        <v>1551</v>
+        <v>44</v>
       </c>
       <c r="M68">
-        <v>867</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>1233</v>
+        <v>36</v>
       </c>
       <c r="O68">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="P68">
-        <v>1985</v>
+        <v>83</v>
       </c>
       <c r="Q68">
-        <v>3871</v>
+        <v>125</v>
       </c>
       <c r="R68">
-        <v>873</v>
+        <v>60</v>
       </c>
       <c r="S68">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="T68">
-        <v>1548</v>
+        <v>51</v>
       </c>
       <c r="U68">
-        <v>1755</v>
+        <v>93</v>
       </c>
       <c r="V68">
-        <v>5593</v>
+        <v>231</v>
       </c>
       <c r="W68">
-        <v>0.411</v>
+        <v>0.453</v>
       </c>
       <c r="X68">
-        <v>0.324</v>
+        <v>0.364</v>
       </c>
       <c r="Y68">
-        <v>0.703</v>
+        <v>0.639</v>
       </c>
       <c r="Z68">
-        <v>22.2</v>
+        <v>15.1</v>
       </c>
       <c r="AA68">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB68">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AC68">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="AD68" t="s">
         <v>150</v>
@@ -7076,76 +7040,76 @@
         <v>21</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>3354</v>
+        <v>129</v>
       </c>
       <c r="I69">
-        <v>617</v>
+        <v>21</v>
       </c>
       <c r="J69">
-        <v>1455</v>
+        <v>60</v>
       </c>
       <c r="K69">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="M69">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="N69">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="O69">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="P69">
-        <v>485</v>
+        <v>18</v>
       </c>
       <c r="Q69">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="R69">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="S69">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="U69">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="V69">
-        <v>1540</v>
+        <v>56</v>
       </c>
       <c r="W69">
-        <v>0.424</v>
+        <v>0.35</v>
       </c>
       <c r="X69">
-        <v>0.314</v>
+        <v>0.222</v>
       </c>
       <c r="Y69">
-        <v>0.749</v>
+        <v>0.857</v>
       </c>
       <c r="Z69">
-        <v>15.4</v>
+        <v>8.1</v>
       </c>
       <c r="AA69">
-        <v>7.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB69">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC69">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD69" t="s">
         <v>150</v>
@@ -7168,76 +7132,76 @@
         <v>23</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="H70">
-        <v>2428</v>
+        <v>516</v>
       </c>
       <c r="I70">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="J70">
-        <v>496</v>
+        <v>96</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="N70">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="O70">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="P70">
-        <v>682</v>
+        <v>122</v>
       </c>
       <c r="Q70">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="R70">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="S70">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="T70">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="U70">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="V70">
-        <v>555</v>
+        <v>110</v>
       </c>
       <c r="W70">
-        <v>0.419</v>
+        <v>0.344</v>
       </c>
       <c r="X70">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>0.642</v>
+        <v>0.733</v>
       </c>
       <c r="Z70">
-        <v>11.3</v>
+        <v>8.6</v>
       </c>
       <c r="AA70">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AB70">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AC70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD70" t="s">
         <v>150</v>
